--- a/aver.xlsx
+++ b/aver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,51 +504,41 @@
           <t>Ferniplast Precio s/ Dto</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Disco Precio</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Disco Precio s/ Dto</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7509546692197</v>
+        <v>7794000006188</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COLGATE HERBAL C/MINERALES 90GR DEN</t>
+          <t>Ketchup Hellmanns 250 Gr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$ 2.350,00</t>
+          <t>$ 1.419,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$ 2.350,00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$ 2.353</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$ 2.353</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+          <t>$ 1.419,00</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$ 1.967,00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$ 1.967,00</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -566,57 +556,49 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>$ 169,00</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$ 169,00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7793008017387</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7790070431509 </t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISSUE TRATAMIENTO CAPILAR BRILLO EXTREMO X 150</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$ 2.114</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$ 3.020</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+          <t>Arroz Parboil Luchetti 1 Kg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$ 2.599,00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$ 2.599,00</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$ 3.125,00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$ 3.125,00</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -639,296 +621,6 @@
       </c>
       <c r="N3" t="n">
         <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7794728011273</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DEPIMIEL CERA EN LATA VEGETAL CON ESTUCHE 200 grs. </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>$ 5.200,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$ 5.200,00</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>$ 4.499</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>$ 4.499</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7798339190105</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ESPADOL DETTOL ALOE VERA 80 GR JAB</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$ 1.350,00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$ 1.350,00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$ 1.413</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$ 1.413</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>$ 1.115,00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$ 1.115,00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7891150087477</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TRESEMME CAPILAR GEL TEXTURIZADOR DEFINE X  200GR</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>$ 3.722,18</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>$ 4.962,90</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>$2.511,54</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>$3.139,42</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>$ 2.599</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>$ 2.599</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8429420152120</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UREADIN MANOS CREAM PLUS CRE 50 ML </t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$ 33.376</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$ 33.376</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>URL error</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>$28.369,47</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>$33.375,85</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
       </c>
     </row>
   </sheetData>
